--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00019/001_コーディング規約（自動）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00019/001_コーディング規約（自動）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F3259B-233B-46FF-8282-246DDB13A86C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A4B46-1C69-4C4E-9FAC-8594C08DA422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -339,6 +339,21 @@
     <t>欠落コード</t>
     <rPh sb="0" eb="2">
       <t>ケツラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンクロージング型のアクセス不可メンバーへのアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ibm.com/support/knowledgecenter/ja/SS8PJ7_9.5.0/org.eclipse.jdt.doc.user/reference/preferences/java/compiler/ref-preferences-errors-warnings.htm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +389,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -412,11 +435,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,8 +488,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,23 +1542,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>427755</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>151458</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>198628</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>131905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A08003-B74F-4FF5-8473-CA54EB1AC60F}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30815546-9D44-4264-BFA9-EF2164EF8615}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,14 +1574,249 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="8162925" y="476250"/>
+          <a:ext cx="11171428" cy="11561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427755</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F019B74F-88D4-4AA9-B92A-FB40EDB08EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="257175" y="238125"/>
-          <a:ext cx="6961905" cy="7533333"/>
+          <a:ext cx="6961905" cy="6980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15501ABB-1C8A-4DA4-A674-EEA890BA125D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="2686050"/>
+          <a:ext cx="4638675" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A9FB1E-6541-4E5D-944C-3AE61B6549C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="2824163"/>
+          <a:ext cx="1219200" cy="3433040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A7CE45-2B44-42BC-B798-26733E2109EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="6610350"/>
+          <a:ext cx="7439025" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2465,13 +2771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2479,9 +2785,10 @@
     <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,8 +2798,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2502,8 +2812,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2513,8 +2824,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2524,8 +2838,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2535,8 +2850,9 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2546,8 +2862,9 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2557,8 +2874,9 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2568,8 +2886,9 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2579,8 +2898,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2590,8 +2910,9 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2601,8 +2922,9 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2612,8 +2934,9 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2623,8 +2946,9 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2634,8 +2958,9 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2645,8 +2970,9 @@
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2656,8 +2982,9 @@
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2667,8 +2994,9 @@
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2678,8 +3006,9 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2689,8 +3018,9 @@
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2700,8 +3030,9 @@
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2711,8 +3042,9 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2722,8 +3054,9 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2733,8 +3066,9 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2744,8 +3078,9 @@
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2755,8 +3090,9 @@
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2766,8 +3102,9 @@
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2777,9 +3114,16 @@
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{A3F82CC9-CD2E-4766-AF1C-434C461583CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3357,7 +3701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F894938A-6FCA-4E60-AB4E-64BBEE99164D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3367,12 +3711,17 @@
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="M2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
